--- a/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
+++ b/000.커리큐럼/주단위상세일정엑셀/FED-RF-2nd-2024-TOM_주단위상세일정.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitTom\FED-RF-2nd-2024-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프론트엔드과정\FED-RF-2nd-2024-TOM\000.커리큐럼\주단위상세일정엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="110">
   <si>
     <t>개발환경셋팅: VS Code + Server + GitHub
 HTML 기초 + CSS 기초</t>
@@ -90,10 +90,6 @@
 Point Learning Ⅰ Project</t>
   </si>
   <si>
-    <t>DataBase
-Point Learning Ⅱ Project</t>
-  </si>
-  <si>
     <t>NCS 학습단위</t>
   </si>
   <si>
@@ -107,9 +103,6 @@
   </si>
   <si>
     <t>JavaScript</t>
-  </si>
-  <si>
-    <t>DataBase</t>
   </si>
   <si>
     <t>1차 분석 / 설계</t>
@@ -126,10 +119,6 @@
   <si>
     <t>HTML5 + CSS3 응용연습
 Javascript 기본</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Programming(React.js)
-Programming(php,Laravel)</t>
   </si>
   <si>
     <t>Point Learning Ⅱ Project
@@ -468,6 +457,46 @@
   </si>
   <si>
     <t>※ 휴일(총 7일) : 구정(2/8~2/12), 삼일절(3/1), 선거일(4/10), 어린이날(5/6대체), 석가탄신일(5/15), 현충일(6/6)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Programming(React.js)
+Programming(php,Laravel)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Programming(php,Laravel)</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>DataBase
+Point Learning Ⅱ Project</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point Learning Ⅱ Project</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>2024-07-18
+최종작품발표회</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>024-07-31
+수료식</t>
+    </r>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +575,7 @@
       <charset val="129"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -577,6 +606,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="14">
     <border>
@@ -780,7 +827,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
@@ -814,6 +861,87 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -835,100 +963,55 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="8" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1239,8 +1322,8 @@
   </sheetPr>
   <dimension ref="A2:L33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScaleSheetLayoutView="75" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1260,893 +1343,911 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:12" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="17"/>
+      <c r="B2" s="42" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="44"/>
     </row>
     <row r="3" spans="1:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
     </row>
     <row r="4" spans="1:12" s="4" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
       <c r="F4" s="9" t="s">
         <v>8</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="K4" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="19">
+      <c r="C5" s="47">
         <v>45329</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="19">
+      <c r="D5" s="48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="47">
         <v>45330</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="49">
         <f>DAYS360(C5,E5)+1</f>
         <v>2</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="23" t="s">
+      <c r="G5" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
+      <c r="J5" s="48"/>
+      <c r="K5" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="L5" s="24" t="s">
-        <v>69</v>
+      <c r="L5" s="52" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="29" t="s">
+      <c r="A6" s="10"/>
+      <c r="B6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="25">
+      <c r="C6" s="11">
         <v>45335</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="25">
+      <c r="D6" s="55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="11">
         <v>45338</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="56">
         <f t="shared" ref="F6:F30" si="0">DAYS360(C6,E6)+1</f>
         <v>4</v>
       </c>
-      <c r="G6" s="27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="26"/>
-      <c r="I6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="30" t="s">
+      <c r="G6" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="55" t="s">
         <v>2</v>
       </c>
-      <c r="K6" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="L6" s="33"/>
+      <c r="K6" s="57" t="s">
+        <v>33</v>
+      </c>
+      <c r="L6" s="58"/>
     </row>
     <row r="7" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="25">
+      <c r="C7" s="14">
         <v>45341</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="25">
+      <c r="D7" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="14">
         <v>45345</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G7" s="27" t="s">
-        <v>30</v>
-      </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="30" t="s">
+      <c r="G7" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="K7" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L7" s="33"/>
+      <c r="H7" s="59">
+        <v>45345</v>
+      </c>
+      <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="25">
+      <c r="C8" s="14">
         <v>45348</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="25">
+      <c r="D8" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="14">
         <v>45351</v>
       </c>
-      <c r="F8" s="31">
-        <f>DAYS360(C8,E8)</f>
-        <v>3</v>
-      </c>
-      <c r="G8" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="25"/>
-      <c r="I8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="K8" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="33"/>
+      <c r="F8" s="37">
+        <f>DAYS360(C8,E8)+1</f>
+        <v>4</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="14"/>
+      <c r="I8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L8" s="22"/>
     </row>
     <row r="9" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="25">
+      <c r="C9" s="14">
         <v>45355</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="25">
+      <c r="D9" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="14">
         <v>45359</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G9" s="27" t="s">
-        <v>26</v>
-      </c>
-      <c r="H9" s="26"/>
-      <c r="I9" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J9" s="30" t="s">
+      <c r="G9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J9" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="L9" s="33"/>
+      <c r="K9" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="L9" s="22"/>
     </row>
     <row r="10" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="25">
+      <c r="C10" s="14">
         <v>45362</v>
       </c>
-      <c r="D10" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="25">
+      <c r="D10" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="14">
         <v>45366</v>
       </c>
-      <c r="F10" s="31">
-        <f>DAYS360(C10,E10)+2</f>
-        <v>6</v>
-      </c>
-      <c r="G10" s="27" t="s">
+      <c r="F10" s="20">
+        <f>DAYS360(C10,E10)+1</f>
+        <v>5</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K10" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L10" s="33"/>
+      <c r="H10" s="53">
+        <v>45363</v>
+      </c>
+      <c r="I10" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J10" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="22"/>
     </row>
     <row r="11" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="25">
+      <c r="C11" s="14">
         <v>45369</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="25">
+      <c r="D11" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14">
         <v>45373</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G11" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K11" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="L11" s="33"/>
+      <c r="G11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H11" s="14"/>
+      <c r="I11" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J11" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="22"/>
     </row>
     <row r="12" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="25">
+      <c r="C12" s="14">
         <v>45376</v>
       </c>
-      <c r="D12" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="25">
+      <c r="D12" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="14">
         <v>45380</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G12" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H12" s="26"/>
-      <c r="I12" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="J12" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="K12" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="L12" s="33"/>
+      <c r="G12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H12" s="15"/>
+      <c r="I12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="J12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="L12" s="22"/>
     </row>
     <row r="13" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="25">
+      <c r="C13" s="14">
         <v>45383</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="D13" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="14">
         <v>45387</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G13" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="L13" s="33"/>
+      <c r="G13" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="53">
+        <v>45386</v>
+      </c>
+      <c r="I13" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L13" s="22"/>
     </row>
     <row r="14" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="25">
+      <c r="B14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="14">
         <v>45390</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="25">
+      <c r="D14" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="14">
         <v>45394</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="37">
         <f>DAYS360(C14,E14)</f>
         <v>4</v>
       </c>
-      <c r="G14" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H14" s="26"/>
-      <c r="I14" s="35" t="s">
+      <c r="G14" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="15"/>
+      <c r="I14" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="J14" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="K14" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="K14" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="L14" s="33"/>
+      <c r="L14" s="22"/>
     </row>
     <row r="15" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="29" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15" s="25">
+      <c r="B15" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="14">
         <v>45397</v>
       </c>
-      <c r="D15" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="25">
+      <c r="D15" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="14">
         <v>45401</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="20">
         <f>DAYS360(C15,E15)+1</f>
         <v>5</v>
       </c>
-      <c r="G15" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" s="26"/>
-      <c r="I15" s="35" t="s">
-        <v>81</v>
-      </c>
-      <c r="J15" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="35" t="s">
+      <c r="G15" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="15"/>
+      <c r="I15" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="L15" s="33"/>
+      <c r="J15" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="K15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="L15" s="22"/>
     </row>
     <row r="16" spans="1:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="C16" s="25">
+      <c r="B16" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="14">
         <v>45404</v>
       </c>
-      <c r="D16" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="25">
+      <c r="D16" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="14">
         <v>45408</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G16" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="H16" s="25"/>
-      <c r="I16" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="J16" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="K16" s="35" t="s">
-        <v>73</v>
-      </c>
-      <c r="L16" s="33"/>
+      <c r="G16" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="53">
+        <v>45407</v>
+      </c>
+      <c r="I16" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="J16" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L16" s="22"/>
     </row>
     <row r="17" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="25">
+      <c r="B17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="14">
         <v>45411</v>
       </c>
-      <c r="D17" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="25">
+      <c r="D17" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="14">
         <v>45415</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G17" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="H17" s="25"/>
-      <c r="I17" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="J17" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K17" s="35" t="s">
+      <c r="G17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="H17" s="14"/>
+      <c r="I17" s="23" t="s">
         <v>82</v>
       </c>
-      <c r="L17" s="28"/>
+      <c r="J17" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K17" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="L17" s="17"/>
     </row>
     <row r="18" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C18" s="25">
+      <c r="B18" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="14">
         <v>45419</v>
       </c>
-      <c r="D18" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E18" s="25">
+      <c r="D18" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" s="14">
         <v>45422</v>
       </c>
-      <c r="F18" s="31">
+      <c r="F18" s="37">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="G18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="H18" s="26"/>
-      <c r="I18" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="J18" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K18" s="35" t="s">
+      <c r="G18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="H18" s="53">
+        <v>45422</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="L18" s="33"/>
+      <c r="J18" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K18" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C19" s="25">
+      <c r="B19" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="14">
         <v>45425</v>
       </c>
-      <c r="D19" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="25">
+      <c r="D19" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="14">
         <v>45429</v>
       </c>
-      <c r="F19" s="31">
+      <c r="F19" s="37">
         <f>DAYS360(C19,E19)</f>
         <v>4</v>
       </c>
-      <c r="G19" s="27" t="s">
+      <c r="G19" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="H19" s="25"/>
-      <c r="I19" s="35" t="s">
-        <v>85</v>
-      </c>
-      <c r="J19" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K19" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="L19" s="33"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="L19" s="22"/>
     </row>
     <row r="20" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" s="25">
+      <c r="B20" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="14">
         <v>45432</v>
       </c>
-      <c r="D20" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="25">
+      <c r="D20" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="14">
         <v>45436</v>
       </c>
-      <c r="F20" s="31">
+      <c r="F20" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G20" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="26"/>
-      <c r="I20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="J20" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K20" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="L20" s="37"/>
+      <c r="G20" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" s="53">
+        <v>45436</v>
+      </c>
+      <c r="I20" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K20" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="25"/>
     </row>
     <row r="21" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="25">
+      <c r="B21" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="14">
         <v>45439</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="25">
+      <c r="D21" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="14">
         <v>45443</v>
       </c>
-      <c r="F21" s="31">
+      <c r="F21" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G21" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="H21" s="25"/>
-      <c r="I21" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K21" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="L21" s="33"/>
+      <c r="G21" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" s="14"/>
+      <c r="I21" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K21" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" s="25">
+      <c r="B22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="14">
         <v>45446</v>
       </c>
-      <c r="D22" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E22" s="25">
+      <c r="D22" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" s="14">
         <v>45450</v>
       </c>
-      <c r="F22" s="31">
+      <c r="F22" s="37">
         <f>DAYS360(C22,E22)</f>
         <v>4</v>
       </c>
-      <c r="G22" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H22" s="26"/>
-      <c r="I22" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J22" s="30" t="s">
+      <c r="G22" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" s="15"/>
+      <c r="I22" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J22" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K22" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="K22" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L22" s="33"/>
+      <c r="L22" s="22"/>
     </row>
     <row r="23" spans="2:12" s="4" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C23" s="25">
+      <c r="B23" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="14">
         <v>45453</v>
       </c>
-      <c r="D23" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="25">
+      <c r="D23" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="14">
         <v>45457</v>
       </c>
-      <c r="F23" s="31">
+      <c r="F23" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G23" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="H23" s="26"/>
-      <c r="I23" s="36" t="s">
-        <v>91</v>
-      </c>
-      <c r="J23" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="35" t="s">
-        <v>93</v>
-      </c>
-      <c r="L23" s="33"/>
+      <c r="G23" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="H23" s="15"/>
+      <c r="I23" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J23" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="K23" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="L23" s="22"/>
     </row>
     <row r="24" spans="2:12" ht="55.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="25">
+      <c r="B24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="14">
         <v>45460</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E24" s="25">
+      <c r="D24" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="14">
         <v>45464</v>
       </c>
-      <c r="F24" s="31">
+      <c r="F24" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G24" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="H24" s="25"/>
-      <c r="I24" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="J24" s="32" t="s">
+      <c r="G24" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H24" s="53">
+        <v>45460</v>
+      </c>
+      <c r="I24" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="K24" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="L24" s="38"/>
+      <c r="K24" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L24" s="26"/>
     </row>
     <row r="25" spans="2:12" ht="57.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="25">
+      <c r="B25" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="C25" s="14">
         <v>45467</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="25">
+      <c r="D25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="14">
         <v>45471</v>
       </c>
-      <c r="F25" s="31">
+      <c r="F25" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G25" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="39"/>
-      <c r="I25" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J25" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="K25" s="35" t="s">
-        <v>96</v>
-      </c>
-      <c r="L25" s="38"/>
+      <c r="G25" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="27"/>
+      <c r="I25" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J25" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="K25" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="L25" s="26"/>
     </row>
     <row r="26" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C26" s="25">
+      <c r="B26" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="14">
         <v>45474</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E26" s="25">
+      <c r="D26" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="14">
         <v>45478</v>
       </c>
-      <c r="F26" s="31">
+      <c r="F26" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G26" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="H26" s="39"/>
-      <c r="I26" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J26" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="K26" s="35" t="s">
-        <v>97</v>
-      </c>
-      <c r="L26" s="37"/>
+      <c r="G26" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="27"/>
+      <c r="I26" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J26" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="L26" s="25"/>
     </row>
     <row r="27" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C27" s="25">
+      <c r="B27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="14">
         <v>45481</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" s="25">
+      <c r="D27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="14">
         <v>45485</v>
       </c>
-      <c r="F27" s="31">
+      <c r="F27" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G27" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="H27" s="25">
-        <v>45286</v>
-      </c>
-      <c r="I27" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="J27" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="K27" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="L27" s="37"/>
+      <c r="G27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="H27" s="53">
+        <v>45481</v>
+      </c>
+      <c r="I27" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="J27" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="K27" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="L27" s="25"/>
     </row>
     <row r="28" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C28" s="25">
+      <c r="B28" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="14">
         <v>45488</v>
       </c>
-      <c r="D28" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" s="25">
+      <c r="D28" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="14">
         <v>45492</v>
       </c>
-      <c r="F28" s="31">
+      <c r="F28" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G28" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="H28" s="39"/>
-      <c r="I28" s="36" t="s">
-        <v>99</v>
-      </c>
-      <c r="J28" s="36" t="s">
-        <v>104</v>
-      </c>
-      <c r="K28" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="L28" s="37"/>
+      <c r="G28" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H28" s="60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I28" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="J28" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="K28" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="L28" s="25"/>
     </row>
     <row r="29" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="25">
+      <c r="B29" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="14">
         <v>45495</v>
       </c>
-      <c r="D29" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" s="25">
+      <c r="D29" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="14">
         <v>45499</v>
       </c>
-      <c r="F29" s="31">
+      <c r="F29" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="G29" s="27" t="s">
+      <c r="G29" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" s="27"/>
+      <c r="I29" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="J29" s="23"/>
+      <c r="K29" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="28"/>
+    </row>
+    <row r="30" spans="2:12" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B30" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="H29" s="39"/>
-      <c r="I29" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="J29" s="35"/>
-      <c r="K29" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="L29" s="40"/>
-    </row>
-    <row r="30" spans="2:12" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B30" s="41" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="25">
+      <c r="C30" s="45">
         <v>45502</v>
       </c>
-      <c r="D30" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="E30" s="25">
+      <c r="D30" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" s="45">
         <v>45504</v>
       </c>
-      <c r="F30" s="43">
+      <c r="F30" s="31">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="G30" s="44" t="s">
-        <v>46</v>
-      </c>
-      <c r="H30" s="45"/>
-      <c r="I30" s="46" t="s">
-        <v>101</v>
-      </c>
-      <c r="J30" s="47" t="s">
+      <c r="G30" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="H30" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="I30" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="K30" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" s="49"/>
-    </row>
-    <row r="31" spans="2:12" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J30" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="36"/>
+    </row>
+    <row r="31" spans="2:12" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="5">
@@ -2155,32 +2256,32 @@
       </c>
     </row>
     <row r="32" spans="2:12" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B32" s="13" t="s">
+      <c r="B32" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="E32" s="13"/>
-      <c r="F32" s="13"/>
-      <c r="G32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40"/>
     </row>
     <row r="33" spans="2:11" s="6" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B33" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="14"/>
-      <c r="I33" s="14"/>
-      <c r="J33" s="14"/>
-      <c r="K33" s="14"/>
+      <c r="B33" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="C33" s="41"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+      <c r="F33" s="41"/>
+      <c r="G33" s="41"/>
+      <c r="H33" s="41"/>
+      <c r="I33" s="41"/>
+      <c r="J33" s="41"/>
+      <c r="K33" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="5">
